--- a/template_examples/mibi_template.xlsx
+++ b/template_examples/mibi_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MIBI" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,8 +80,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
-In .tsv format</t>
+          <t xml:space="preserve">Path to a file on a user's computer.</t>
         </r>
       </text>
     </comment>
@@ -123,7 +122,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">A text description of this slide. Eg: decidua</t>
+          <t xml:space="preserve">A text description of this ROI. Eg: decidua</t>
         </r>
       </text>
     </comment>
@@ -352,7 +351,7 @@
     <t xml:space="preserve">Dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
+    <t xml:space="preserve">Roi description</t>
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
@@ -490,7 +489,7 @@
     <t xml:space="preserve">Identifier of a region of interest within one mIF slide, e.g. 1, 2, 3 or [123x321]</t>
   </si>
   <si>
-    <t xml:space="preserve">A text description of this slide. Eg: decidua</t>
+    <t xml:space="preserve">A text description of this ROI. Eg: decidua</t>
   </si>
   <si>
     <t xml:space="preserve">A text comment regarding this slide.</t>
@@ -784,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:F2009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10951,8 +10950,8 @@
   </sheetPr>
   <dimension ref="A1:K2002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C2:C6 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21092,7 +21091,7 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21365,7 +21364,7 @@
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/template_examples/mibi_template.xlsx
+++ b/template_examples/mibi_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MIBI" sheetId="1" state="visible" r:id="rId2"/>
@@ -80,7 +80,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.</t>
+          <t xml:space="preserve">Path to file, relative to the intake bucket.</t>
         </r>
       </text>
     </comment>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">E.g. 'DFCI'</t>
   </si>
   <si>
-    <t xml:space="preserve">Path to a file on a user's computer.</t>
+    <t xml:space="preserve">Path to file, relative to the intake bucket.</t>
   </si>
   <si>
     <t xml:space="preserve">Section 'Samples' of tab 'MIBI'</t>
@@ -783,11 +783,11 @@
   </sheetPr>
   <dimension ref="A1:F2009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B3:K5 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10950,11 +10950,11 @@
   </sheetPr>
   <dimension ref="A1:K2002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C2:C6 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B3:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -21091,10 +21091,10 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:K5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -21364,10 +21364,10 @@
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:K5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
